--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_30.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2255736.481338855</v>
+        <v>2364378.642641668</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12443012.75936921</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283169</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9455422.020753244</v>
+        <v>9460915.66674166</v>
       </c>
     </row>
     <row r="11">
@@ -656,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>288.4532779444722</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>241.7403598347001</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>92.54542199828271</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -826,7 +828,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
@@ -871,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>152.1620426913552</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>376.4410782795507</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247049</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>196.8536298952779</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1060,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>137.87505561553</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>7.878129006829753</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -1102,25 +1104,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>2.379113942662527</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>195.1610155006146</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>134.1156516430223</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1339,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>130.7543719049328</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,7 +1356,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.27289177101</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695514</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>60.7810271702807</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012152</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016445</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.184474389244</v>
+        <v>253.2918698186439</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634825</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695516</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174129</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462237</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856539</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>17.95257707283775</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2017,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2052,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>54.45740180395795</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2059,13 +2061,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>184.5976356537998</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2144,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2236,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>1.255571502167253</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2293,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>210.6850032871176</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>137.1782748299193</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2731,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>105.6507867899574</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>114.2935157990527</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2956,16 +2958,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>9.146142788180832</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3007,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>188.7692896015406</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819372</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.433962646569</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922687</v>
+        <v>131.4093105446509</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>93.62264337260878</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520946</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695517</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>124.0908577195013</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856539</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012154</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016445</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>71.60395572454081</v>
       </c>
       <c r="U37" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.1376433238279</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3503,22 +3505,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3554,16 +3556,16 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.433962646569</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856539</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012154</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.5229983365909</v>
+        <v>214.4033048062049</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>212.4076860934789</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3749,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3898,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>100.7197280522375</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>55.52079624060383</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3961,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4135,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>123.9815576456779</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4192,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>842.8595545333294</v>
+        <v>1819.431341154229</v>
       </c>
       <c r="C2" t="n">
-        <v>473.8970375929177</v>
+        <v>1450.468824213818</v>
       </c>
       <c r="D2" t="n">
-        <v>473.8970375929177</v>
+        <v>1092.203125607067</v>
       </c>
       <c r="E2" t="n">
-        <v>473.8970375929177</v>
+        <v>706.414873008823</v>
       </c>
       <c r="F2" t="n">
-        <v>466.9515368437143</v>
+        <v>295.4289682192154</v>
       </c>
       <c r="G2" t="n">
         <v>51.24678656800311</v>
@@ -4328,16 +4330,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V2" t="n">
-        <v>1897.83159218888</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W2" t="n">
-        <v>1897.83159218888</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="X2" t="n">
-        <v>1524.3658339278</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="Y2" t="n">
-        <v>1134.226501951988</v>
+        <v>1819.431341154229</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057915</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>684.9695361605189</v>
       </c>
       <c r="L3" t="n">
-        <v>815.114548125109</v>
+        <v>979.6730931919907</v>
       </c>
       <c r="M3" t="n">
-        <v>1178.376567084329</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N3" t="n">
-        <v>1565.661695681274</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>938.9442613508774</v>
+        <v>716.5983551657496</v>
       </c>
       <c r="C4" t="n">
-        <v>770.0080784229705</v>
+        <v>623.11813092506</v>
       </c>
       <c r="D4" t="n">
-        <v>619.8914390106347</v>
+        <v>473.0014915127243</v>
       </c>
       <c r="E4" t="n">
-        <v>471.9783454282416</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="F4" t="n">
         <v>325.0883979303312</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386098</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4519,19 +4521,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1347.327782578335</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>1092.643294372448</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W4" t="n">
-        <v>938.9442613508774</v>
+        <v>1347.028950037537</v>
       </c>
       <c r="X4" t="n">
-        <v>938.9442613508774</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y4" t="n">
-        <v>938.9442613508774</v>
+        <v>898.2468199959893</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1622.544763526516</v>
+        <v>1213.292347699871</v>
       </c>
       <c r="C5" t="n">
-        <v>1253.582246586104</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D5" t="n">
-        <v>895.3165479793536</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E5" t="n">
-        <v>509.5282953811093</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F5" t="n">
-        <v>129.2847819674218</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362822</v>
@@ -4592,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.89447953245</v>
+        <v>2363.497278000884</v>
       </c>
       <c r="U5" t="n">
-        <v>1975.31341879663</v>
+        <v>2363.497278000884</v>
       </c>
       <c r="V5" t="n">
-        <v>1975.31341879663</v>
+        <v>2363.497278000884</v>
       </c>
       <c r="W5" t="n">
-        <v>1622.544763526516</v>
+        <v>2363.497278000884</v>
       </c>
       <c r="X5" t="n">
-        <v>1622.544763526516</v>
+        <v>1990.031519739804</v>
       </c>
       <c r="Y5" t="n">
-        <v>1622.544763526516</v>
+        <v>1599.892187763993</v>
       </c>
     </row>
     <row r="6">
@@ -4638,10 +4640,10 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
         <v>113.5972052500113</v>
@@ -4662,10 +4664,10 @@
         <v>1937.460550937313</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>633.2923138032179</v>
+        <v>648.8722344236533</v>
       </c>
       <c r="C7" t="n">
-        <v>464.356130875311</v>
+        <v>479.9360514957464</v>
       </c>
       <c r="D7" t="n">
-        <v>464.356130875311</v>
+        <v>479.9360514957464</v>
       </c>
       <c r="E7" t="n">
-        <v>325.0883979303312</v>
+        <v>479.9360514957464</v>
       </c>
       <c r="F7" t="n">
-        <v>325.0883979303312</v>
+        <v>333.046103997836</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386098</v>
+        <v>165.0596393061146</v>
       </c>
       <c r="H7" t="n">
         <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4750,25 +4752,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1439.817372234358</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1439.817372234358</v>
+        <v>1413.467639269232</v>
       </c>
       <c r="U7" t="n">
-        <v>1150.699034738196</v>
+        <v>1124.34930177307</v>
       </c>
       <c r="V7" t="n">
-        <v>1150.699034738196</v>
+        <v>869.6648135671834</v>
       </c>
       <c r="W7" t="n">
-        <v>861.2818647012352</v>
+        <v>869.6648135671834</v>
       </c>
       <c r="X7" t="n">
-        <v>633.2923138032179</v>
+        <v>869.6648135671834</v>
       </c>
       <c r="Y7" t="n">
-        <v>633.2923138032179</v>
+        <v>648.8722344236533</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1295.236214140705</v>
+        <v>1838.755147556638</v>
       </c>
       <c r="C8" t="n">
-        <v>1295.236214140705</v>
+        <v>1469.792630616227</v>
       </c>
       <c r="D8" t="n">
-        <v>936.9705155339545</v>
+        <v>1111.526932009476</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>725.7386794112319</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>314.7527746216244</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180638</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="X8" t="n">
-        <v>2071.975386180638</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="Y8" t="n">
-        <v>1681.836054204827</v>
+        <v>1838.755147556638</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>498.9890585374015</v>
+        <v>220.18296949591</v>
       </c>
       <c r="C10" t="n">
-        <v>363.5187033424295</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="D10" t="n">
-        <v>213.4020639300938</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F10" t="n">
-        <v>66.5121164321834</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1504.370996938202</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484845</v>
+        <v>1281.392516132937</v>
       </c>
       <c r="U10" t="n">
-        <v>1224.739181610489</v>
+        <v>992.2741786367748</v>
       </c>
       <c r="V10" t="n">
-        <v>970.0546934046018</v>
+        <v>737.5896904308879</v>
       </c>
       <c r="W10" t="n">
-        <v>680.6375233676413</v>
+        <v>448.1725203939274</v>
       </c>
       <c r="X10" t="n">
-        <v>680.6375233676413</v>
+        <v>220.18296949591</v>
       </c>
       <c r="Y10" t="n">
-        <v>680.6375233676413</v>
+        <v>220.18296949591</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611463</v>
@@ -5033,58 +5035,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273906</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>429.5088224239597</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>924.8344286397185</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>924.8344286397185</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N12" t="n">
-        <v>1540.888753373306</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612593</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>741.8431516380901</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>741.8431516380901</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D13" t="n">
-        <v>591.7265122257545</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>443.8134186433615</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>296.9234711454511</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>296.9234711454511</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>155.2116399876494</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.28419561186</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X13" t="n">
-        <v>1144.28419561186</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y13" t="n">
-        <v>923.4916164683298</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="14">
@@ -5270,7 +5272,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192596</v>
@@ -5279,49 +5281,49 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>484.8243144841095</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>980.1499206998682</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M15" t="n">
-        <v>1577.52840832642</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>783.5579673960125</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>614.6217844681057</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>464.5051450557701</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557701</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578599</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578599</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000581</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2428.829167345072</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2245.974332999977</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2026.372868022918</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1737.297641367116</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1482.61315316123</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1193.195983124269</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>965.206432226252</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>965.206432226252</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5519,16 +5521,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5540,25 +5542,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>2715.159942084666</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>3210.485548300425</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M18" t="n">
-        <v>3807.864035926977</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N18" t="n">
-        <v>4435.461999481584</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>4435.461999481584</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>4690.833152398593</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>869.6905094135296</v>
+        <v>810.0653816078141</v>
       </c>
       <c r="C19" t="n">
-        <v>700.7543264856228</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D19" t="n">
-        <v>550.637687073287</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5698,25 +5700,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2324.909903263008</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2105.308438285949</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1816.233211630147</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1561.54872342426</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W19" t="n">
-        <v>1272.131553387299</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X19" t="n">
-        <v>1272.131553387299</v>
+        <v>1212.506425581584</v>
       </c>
       <c r="Y19" t="n">
-        <v>1051.338974243769</v>
+        <v>991.7138464380538</v>
       </c>
     </row>
     <row r="20">
@@ -5729,40 +5731,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,25 +5773,25 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
         <v>3094.515198591809</v>
@@ -5823,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>710.2486053718725</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>802.9288273958734</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C22" t="n">
-        <v>633.9926444679666</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D22" t="n">
-        <v>633.9926444679666</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E22" t="n">
-        <v>486.0795508855734</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5941,19 +5943,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1205.369871369643</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="Y22" t="n">
-        <v>984.5772922261132</v>
+        <v>931.4710609784063</v>
       </c>
     </row>
     <row r="23">
@@ -5981,16 +5983,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,19 +6001,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
         <v>4606.285157492578</v>
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K24" t="n">
-        <v>484.8243144841095</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>980.1499206998682</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M24" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>806.8386896933887</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>637.9025067654818</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>637.9025067654818</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2308.399169610645</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2088.797704633586</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1799.722477977784</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1545.037989771897</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1255.620819734936</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1027.631268836919</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>806.8386896933887</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6212,34 +6214,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6306,22 +6308,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>671.2000270096656</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.167399417937</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,52 +6360,52 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
@@ -6412,16 +6414,16 @@
         <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U28" t="n">
-        <v>1871.240688199802</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V28" t="n">
-        <v>1616.556199993915</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W28" t="n">
-        <v>1616.556199993915</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X28" t="n">
         <v>1501.108204237296</v>
@@ -6449,10 +6451,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6476,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,25 +6539,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>579.1554649516142</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M30" t="n">
-        <v>1176.533952578166</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N30" t="n">
-        <v>1804.131916132773</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>577.8620388433919</v>
+        <v>2824.769373306003</v>
       </c>
       <c r="C31" t="n">
-        <v>408.925855915485</v>
+        <v>2655.833190378096</v>
       </c>
       <c r="D31" t="n">
-        <v>408.925855915485</v>
+        <v>2655.833190378096</v>
       </c>
       <c r="E31" t="n">
-        <v>261.0127623330919</v>
+        <v>2655.833190378096</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>4288.376853076439</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>3999.301626420637</v>
       </c>
       <c r="V31" t="n">
-        <v>1497.70980375214</v>
+        <v>3744.61713821475</v>
       </c>
       <c r="W31" t="n">
-        <v>1208.292633715179</v>
+        <v>3455.19996817779</v>
       </c>
       <c r="X31" t="n">
-        <v>980.3030828171618</v>
+        <v>3227.210417279773</v>
       </c>
       <c r="Y31" t="n">
-        <v>759.5105036736317</v>
+        <v>3006.417838136243</v>
       </c>
     </row>
     <row r="32">
@@ -6686,10 +6688,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6713,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>2383.002557118213</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>2383.002557118213</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>2878.328163333972</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M33" t="n">
-        <v>3445.398957336244</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N33" t="n">
-        <v>3445.398957336244</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O33" t="n">
-        <v>3997.308687575531</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2949.802511644063</v>
+        <v>3160.164713532175</v>
       </c>
       <c r="C34" t="n">
-        <v>2949.802511644063</v>
+        <v>2991.228530604268</v>
       </c>
       <c r="D34" t="n">
-        <v>2799.685872231727</v>
+        <v>2841.111891191932</v>
       </c>
       <c r="E34" t="n">
-        <v>2651.772778649335</v>
+        <v>2841.111891191932</v>
       </c>
       <c r="F34" t="n">
-        <v>2504.882831151424</v>
+        <v>2694.221943694022</v>
       </c>
       <c r="G34" t="n">
-        <v>2337.686731866304</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I34" t="n">
         <v>2337.686731866304</v>
@@ -6880,28 +6882,28 @@
         <v>4690.833152398593</v>
       </c>
       <c r="R34" t="n">
-        <v>4690.833152398593</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S34" t="n">
-        <v>4507.978318053498</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T34" t="n">
-        <v>4413.409991414499</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U34" t="n">
-        <v>4124.334764758697</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V34" t="n">
-        <v>3869.65027655281</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W34" t="n">
-        <v>3580.23310651585</v>
+        <v>3388.154264430192</v>
       </c>
       <c r="X34" t="n">
-        <v>3352.243555617832</v>
+        <v>3160.164713532175</v>
       </c>
       <c r="Y34" t="n">
-        <v>3131.450976474302</v>
+        <v>3160.164713532175</v>
       </c>
     </row>
     <row r="35">
@@ -6917,22 +6919,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6950,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6962,16 +6964,16 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
         <v>3467.980956852888</v>
@@ -6980,7 +6982,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O36" t="n">
         <v>1896.176478190825</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>915.1035305473727</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C37" t="n">
-        <v>746.1673476194659</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D37" t="n">
-        <v>596.0507082071304</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>448.1376146247374</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>301.2476671268271</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000581</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000581</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487569</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487569</v>
+        <v>2307.590151828076</v>
       </c>
       <c r="U37" t="n">
-        <v>1907.987318831767</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="V37" t="n">
-        <v>1653.30283062588</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W37" t="n">
-        <v>1363.88566058892</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X37" t="n">
-        <v>1135.896109690903</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y37" t="n">
-        <v>915.1035305473727</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="38">
@@ -7163,10 +7165,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
@@ -7193,13 +7195,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7208,7 +7210,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
         <v>3467.980956852889</v>
@@ -7245,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M39" t="n">
-        <v>1176.533952578166</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
-        <v>1540.888753373307</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3173.60104615395</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C40" t="n">
-        <v>3173.60104615395</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>3023.484406741615</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>2875.571313159222</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>2728.681365661312</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>2561.485266376192</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.77343521839</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>4221.331149328841</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>3932.255922673039</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>3677.571434467152</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>3388.154264430192</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X40" t="n">
-        <v>3388.154264430192</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y40" t="n">
-        <v>3173.60104615395</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004712</v>
@@ -7397,7 +7399,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,22 +7408,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7442,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7491,25 +7493,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.167399417937</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>741.8431516380886</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C43" t="n">
-        <v>640.1060525954244</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D43" t="n">
-        <v>489.9894131830887</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E43" t="n">
-        <v>489.9894131830887</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851783</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X43" t="n">
-        <v>1144.284195611858</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y43" t="n">
-        <v>923.4916164683283</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="44">
@@ -7634,19 +7636,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7655,10 +7657,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7731,19 +7733,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>506.2737913123336</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M45" t="n">
-        <v>1103.652278938886</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N45" t="n">
-        <v>1731.250242493492</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O45" t="n">
-        <v>2283.159972732779</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2294.325993963485</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C46" t="n">
-        <v>513.8536007400712</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7840,16 +7842,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>224.3355197601778</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039158</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>138.9393975111057</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8310,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>265.0304328515147</v>
+        <v>30.36925650589473</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8526,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>193.3273467878346</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8550,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23306,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23416,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23428,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.524138292252</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48480914828468</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>32.89260457060021</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.709655389037</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23659,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>145.6085800303783</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922687</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>48.4226696372838</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23744,7 +23746,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23905,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>126.5688841976866</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,13 +23949,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>41.11201973523731</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>144.165476520764</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24181,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>15.02465210191954</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>43.84801117172532</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24652,19 +24654,19 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>180.5336875992868</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>111.4161395899845</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24844,16 +24846,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>136.2749052347504</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24895,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>63.36835372228742</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>34.11482774761799</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462237</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856539</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012154</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>123.7828069546793</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25324,10 +25326,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>41.43328057276739</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462237</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25360,16 +25362,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272881</v>
+        <v>145.8014946027475</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25546,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25609,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>72.11969353038609</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>6.176967258615775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25786,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>66.52709304639036</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>110.003342051665</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25849,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26023,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>24.63391537253442</v>
+        <v>34.97276993489203</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26080,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>827141.2095144069</v>
+        <v>833083.1370154776</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>813246.0393401301</v>
+        <v>813246.0393401296</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>813246.0393401295</v>
+        <v>813246.0393401296</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>813246.0393401296</v>
+        <v>813246.0393401295</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>813246.0393401295</v>
+        <v>813246.0393401296</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>813246.0393401295</v>
+        <v>813246.0393401296</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>813246.0393401295</v>
+        <v>813246.0393401296</v>
       </c>
     </row>
   </sheetData>
@@ -26311,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982127</v>
       </c>
       <c r="C2" t="n">
         <v>615781.3273982126</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982122</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="E2" t="n">
+        <v>605359.9497675046</v>
+      </c>
+      <c r="F2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="G2" t="n">
         <v>605359.9497675045</v>
       </c>
-      <c r="F2" t="n">
-        <v>605359.9497675044</v>
-      </c>
-      <c r="G2" t="n">
-        <v>605359.9497675044</v>
-      </c>
       <c r="H2" t="n">
-        <v>605359.9497675046</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="I2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="J2" t="n">
         <v>605359.9497675046</v>
@@ -26341,16 +26343,16 @@
         <v>605359.9497675042</v>
       </c>
       <c r="L2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="M2" t="n">
         <v>605359.9497675045</v>
       </c>
-      <c r="M2" t="n">
-        <v>605359.9497675044</v>
-      </c>
       <c r="N2" t="n">
-        <v>605359.9497675047</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="O2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675039</v>
       </c>
       <c r="P2" t="n">
         <v>605359.9497675042</v>
@@ -26369,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403379</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.920821771112969e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819068</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,37 +26423,37 @@
         <v>131909.726831625</v>
       </c>
       <c r="D4" t="n">
-        <v>86084.45926805866</v>
+        <v>131909.726831625</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707572</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.424496707393</v>
+        <v>6897.424496707415</v>
       </c>
       <c r="G4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="H4" t="n">
         <v>6897.42449670736</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
+        <v>6897.424496707319</v>
+      </c>
+      <c r="J4" t="n">
         <v>6897.424496707361</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="L4" t="n">
         <v>6897.42449670736</v>
       </c>
-      <c r="J4" t="n">
-        <v>6897.424496707359</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>6897.42449670736</v>
       </c>
-      <c r="L4" t="n">
-        <v>6897.424496707405</v>
-      </c>
-      <c r="M4" t="n">
-        <v>6897.424496707487</v>
-      </c>
       <c r="N4" t="n">
-        <v>6897.424496707446</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="O4" t="n">
         <v>6897.42449670736</v>
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26524,46 @@
         <v>-723817.9554491768</v>
       </c>
       <c r="C6" t="n">
-        <v>390933.828126743</v>
+        <v>390933.8281267432</v>
       </c>
       <c r="D6" t="n">
-        <v>229135.7871284224</v>
+        <v>390933.8281267426</v>
       </c>
       <c r="E6" t="n">
-        <v>171927.5336395342</v>
+        <v>-10145.4461776556</v>
       </c>
       <c r="F6" t="n">
-        <v>497339.99544689</v>
+        <v>497339.9954468897</v>
       </c>
       <c r="G6" t="n">
         <v>497339.99544689</v>
       </c>
       <c r="H6" t="n">
-        <v>497339.9954468901</v>
+        <v>497339.9954468898</v>
       </c>
       <c r="I6" t="n">
-        <v>497339.9954468898</v>
+        <v>497339.9954468894</v>
       </c>
       <c r="J6" t="n">
-        <v>329734.8176369074</v>
+        <v>329734.8176369076</v>
       </c>
       <c r="K6" t="n">
         <v>497339.9954468898</v>
       </c>
       <c r="L6" t="n">
-        <v>449046.0254386993</v>
+        <v>497339.9954468898</v>
       </c>
       <c r="M6" t="n">
-        <v>412284.9675113779</v>
+        <v>364732.7017179633</v>
       </c>
       <c r="N6" t="n">
-        <v>497339.9954468902</v>
+        <v>497339.9954468896</v>
       </c>
       <c r="O6" t="n">
-        <v>497339.99544689</v>
+        <v>497339.9954468894</v>
       </c>
       <c r="P6" t="n">
-        <v>497339.9954468898</v>
+        <v>497339.9954468897</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,16 +26792,16 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26808,7 +26810,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>433.9106082241344</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27015,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022537</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973561</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,19 +27032,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022537</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022537</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>94.2805637190084</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>169.8073429382538</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>74.70139910034513</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27546,7 +27548,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27591,19 +27593,19 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>134.3609556452358</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>30.43496746216078</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>9.804555084955837</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27780,16 +27782,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>8.558907031039183</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>139.3733801482991</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27822,25 +27824,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>379.5512561295993</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>216.3866872723394</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27907,13 +27909,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28008,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>33.13116945560552</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>63.90808845680462</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28074,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28387,7 +28389,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -29086,7 +29088,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -31039,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31054,16 +31056,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31075,7 +31077,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31124,7 +31126,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31136,16 +31138,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31203,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31230,7 +31232,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31239,7 +31241,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N12" t="n">
-        <v>753.6188077738261</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32078,16 +32080,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>381.6404378718165</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32096,10 +32098,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>213.1625787491746</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32318,22 +32320,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>279.2419622547062</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>391.9250669264611</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32546,19 +32548,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>608.2694430035901</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>615.038144437878</v>
       </c>
       <c r="N21" t="n">
         <v>131.3417120833333</v>
@@ -32570,7 +32572,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>379.8551982710416</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>530.5785304507785</v>
       </c>
       <c r="N24" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>233.3139244897919</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>375.1407109807906</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33257,16 +33259,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>404.0195168876591</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,10 +33277,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>198.5607970756955</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33494,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33506,22 +33508,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>714.9328157424948</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>309.9424824173362</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,7 +33736,7 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
@@ -33743,13 +33745,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>677.2750468965965</v>
       </c>
       <c r="N36" t="n">
-        <v>290.6810969936921</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33968,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33980,10 +33982,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>245.8118639189582</v>
       </c>
       <c r="N39" t="n">
-        <v>499.3768644016574</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -33992,7 +33994,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34141,7 +34143,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460027</v>
@@ -34211,28 +34213,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>139.5228722182831</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>400.8433522134843</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34451,7 +34453,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>555.1777416630679</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34463,10 +34465,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>364.3208035245835</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -34699,19 +34701,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34720,7 +34722,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>522.015880398028</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000389</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>255.4201198419603</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,13 +34856,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34869,13 +34871,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35030,13 +35032,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>514.7099619750469</v>
+        <v>280.048785629427</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>379.9148430313194</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396416</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N12" t="n">
-        <v>622.2770956904928</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35647,7 +35649,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367785</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
@@ -35726,16 +35728,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>243.7989988974575</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35744,10 +35746,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>73.18080466315305</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295349</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35905,7 +35907,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,22 +35968,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>140.6875824748321</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>257.9506595121309</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36124,7 +36126,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
         <v>735.3001107902948</v>
@@ -36194,19 +36196,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>469.7150632237159</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>472.9041105158597</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36218,7 +36220,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>37.00975247789211</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>242.0137592966826</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>388.4444965287602</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,25 +36676,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>94.75954470991771</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>243.7989988974573</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36838,7 +36840,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
@@ -36850,7 +36852,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36905,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>265.4651371077849</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,10 +36925,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>55.96455263125101</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -37081,7 +37083,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
@@ -37090,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37154,22 +37156,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>572.7987818204764</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>167.3462379728918</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295349</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,7 +37311,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M35" t="n">
         <v>735.3001107902948</v>
@@ -37327,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37391,13 +37393,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>535.1410129745782</v>
       </c>
       <c r="N36" t="n">
-        <v>159.3393849103587</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295349</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37628,10 +37630,10 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>103.6778299969399</v>
       </c>
       <c r="N39" t="n">
-        <v>368.035152318324</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37640,7 +37642,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789211</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295349</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37789,7 +37791,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37859,28 +37861,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>8.181160134949776</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>266.868944799154</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38035,7 +38037,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38099,7 +38101,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>416.6233618831937</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38111,10 +38113,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>224.339029438562</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2364378.642641668</v>
+        <v>2360241.485391517</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12383593.4843585</v>
+        <v>12383593.48435851</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283181</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>241.7403598347001</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>59.52437499056592</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -819,25 +819,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>92.54542199828271</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>30.22334776078266</v>
       </c>
     </row>
     <row r="5">
@@ -901,22 +901,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>196.8536298952779</v>
+        <v>196.6997841156786</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1071,10 +1071,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>7.878129006829753</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,19 +1107,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>52.21681339464231</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>286.5888679426061</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>195.1610155006146</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>111.5109739231589</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>130.7543719049328</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>116.4636264596503</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>253.2918698186439</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1773,16 +1773,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8253826161909023</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>38.95525409458268</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>70.0455488112438</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>184.5976356537998</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2250,16 +2250,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>211.0945873157032</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>210.6850032871176</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2377,7 +2377,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>122.6028762599955</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>105.6507867899574</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2961,10 +2961,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>9.146142788180832</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>41.33703994143001</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>131.4093105446509</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>71.60395572454081</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3666,13 +3666,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,19 +3711,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>172.026033500079</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>214.4033048062049</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>55.52079624060383</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>113.6427030833203</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4194,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1819.431341154229</v>
+        <v>1653.287154902436</v>
       </c>
       <c r="C2" t="n">
-        <v>1450.468824213818</v>
+        <v>1284.324637962024</v>
       </c>
       <c r="D2" t="n">
-        <v>1092.203125607067</v>
+        <v>926.0589393552737</v>
       </c>
       <c r="E2" t="n">
-        <v>706.414873008823</v>
+        <v>540.2706867570294</v>
       </c>
       <c r="F2" t="n">
-        <v>295.4289682192154</v>
+        <v>129.2847819674217</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2502.213697096553</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2293.468055702378</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>2039.886994966557</v>
       </c>
       <c r="V2" t="n">
-        <v>2562.339328400155</v>
+        <v>2039.886994966557</v>
       </c>
       <c r="W2" t="n">
-        <v>2209.570673130041</v>
+        <v>2039.886994966557</v>
       </c>
       <c r="X2" t="n">
-        <v>2209.570673130041</v>
+        <v>2039.886994966557</v>
       </c>
       <c r="Y2" t="n">
-        <v>1819.431341154229</v>
+        <v>2039.886994966557</v>
       </c>
     </row>
     <row r="3">
@@ -4403,31 +4403,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>684.9695361605189</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>979.6730931919907</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M3" t="n">
-        <v>1342.935112151211</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N3" t="n">
-        <v>1730.220240748156</v>
+        <v>1552.492103330612</v>
       </c>
       <c r="O3" t="n">
-        <v>2062.290675924318</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P3" t="n">
-        <v>2309.473409756615</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>716.5983551657496</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="C4" t="n">
-        <v>623.11813092506</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="D4" t="n">
-        <v>473.0014915127243</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E4" t="n">
-        <v>325.0883979303312</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F4" t="n">
-        <v>325.0883979303312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386097</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020476</v>
@@ -4515,25 +4515,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V4" t="n">
-        <v>1636.446120074497</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="W4" t="n">
-        <v>1347.028950037537</v>
+        <v>638.3033838959711</v>
       </c>
       <c r="X4" t="n">
-        <v>1119.039399139519</v>
+        <v>410.3138329979538</v>
       </c>
       <c r="Y4" t="n">
-        <v>898.2468199959893</v>
+        <v>379.7851988961531</v>
       </c>
     </row>
     <row r="5">
@@ -4543,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1213.292347699871</v>
+        <v>1586.913505738324</v>
       </c>
       <c r="C5" t="n">
-        <v>844.329830759459</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="D5" t="n">
-        <v>844.329830759459</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E5" t="n">
-        <v>844.329830759459</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F5" t="n">
-        <v>837.3843300102556</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872914</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4597,22 +4597,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2363.497278000884</v>
+        <v>2363.652677778257</v>
       </c>
       <c r="U5" t="n">
-        <v>2363.497278000884</v>
+        <v>2363.652677778257</v>
       </c>
       <c r="V5" t="n">
-        <v>2363.497278000884</v>
+        <v>2363.652677778257</v>
       </c>
       <c r="W5" t="n">
-        <v>2363.497278000884</v>
+        <v>2363.652677778257</v>
       </c>
       <c r="X5" t="n">
-        <v>1990.031519739804</v>
+        <v>2363.652677778257</v>
       </c>
       <c r="Y5" t="n">
-        <v>1599.892187763993</v>
+        <v>1973.513345802446</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>560.1394111735141</v>
+        <v>614.5430248380226</v>
       </c>
       <c r="L6" t="n">
-        <v>854.8429682049857</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>1218.104987164206</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1605.390115761151</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>1937.460550937313</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2214.708848710445</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>648.8722344236533</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="C7" t="n">
-        <v>479.9360514957464</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D7" t="n">
-        <v>479.9360514957464</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E7" t="n">
-        <v>479.9360514957464</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F7" t="n">
-        <v>333.046103997836</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>165.0596393061146</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4740,10 +4740,10 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4755,22 +4755,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1413.467639269232</v>
+        <v>1583.701864120313</v>
       </c>
       <c r="U7" t="n">
-        <v>1124.34930177307</v>
+        <v>1294.583526624151</v>
       </c>
       <c r="V7" t="n">
-        <v>869.6648135671834</v>
+        <v>1294.583526624151</v>
       </c>
       <c r="W7" t="n">
-        <v>869.6648135671834</v>
+        <v>1294.583526624151</v>
       </c>
       <c r="X7" t="n">
-        <v>869.6648135671834</v>
+        <v>1066.593975726134</v>
       </c>
       <c r="Y7" t="n">
-        <v>648.8722344236533</v>
+        <v>845.8013965826035</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1838.755147556638</v>
+        <v>728.3028554854568</v>
       </c>
       <c r="C8" t="n">
-        <v>1469.792630616227</v>
+        <v>359.3403385450451</v>
       </c>
       <c r="D8" t="n">
-        <v>1111.526932009476</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="E8" t="n">
-        <v>725.7386794112319</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="F8" t="n">
-        <v>314.7527746216244</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2228.89447953245</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="W8" t="n">
-        <v>2228.89447953245</v>
+        <v>1878.50778578647</v>
       </c>
       <c r="X8" t="n">
-        <v>2228.89447953245</v>
+        <v>1505.04202752539</v>
       </c>
       <c r="Y8" t="n">
-        <v>1838.755147556638</v>
+        <v>1114.902695549579</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
         <v>51.2467865680031</v>
@@ -4886,22 +4886,22 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380223</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694941</v>
+        <v>979.6730931919905</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1342.93511215121</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.793729425659</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>220.18296949591</v>
+        <v>461.9138669598622</v>
       </c>
       <c r="C10" t="n">
-        <v>51.2467865680031</v>
+        <v>461.9138669598622</v>
       </c>
       <c r="D10" t="n">
-        <v>51.2467865680031</v>
+        <v>311.7972275475264</v>
       </c>
       <c r="E10" t="n">
-        <v>51.2467865680031</v>
+        <v>163.8841339651333</v>
       </c>
       <c r="F10" t="n">
         <v>51.2467865680031</v>
@@ -4962,25 +4962,25 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4989,25 +4989,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1504.370996938202</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1281.392516132937</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>992.2741786367748</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>737.5896904308879</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W10" t="n">
-        <v>448.1725203939274</v>
+        <v>1092.344461831649</v>
       </c>
       <c r="X10" t="n">
-        <v>220.18296949591</v>
+        <v>864.354910933632</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.18296949591</v>
+        <v>643.5623317901019</v>
       </c>
     </row>
     <row r="11">
@@ -5035,16 +5035,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332386</v>
@@ -5059,10 +5059,10 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C13" t="n">
-        <v>847.644273983533</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711973</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>378.6527890600114</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5266,22 +5266,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,37 +5290,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876688</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597619</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="D16" t="n">
-        <v>261.8464821474262</v>
+        <v>422.7903292978464</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>274.8772357154533</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="17">
@@ -5491,46 +5491,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5542,25 +5542,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>810.0653816078141</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C19" t="n">
-        <v>641.1291986799072</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D19" t="n">
-        <v>491.0125592675714</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E19" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V19" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W19" t="n">
-        <v>1398.968683817745</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X19" t="n">
-        <v>1212.506425581584</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y19" t="n">
-        <v>991.7138464380538</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="20">
@@ -5731,40 +5731,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5773,28 +5773,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1540.888753373307</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>931.4710609784063</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C22" t="n">
-        <v>762.5348780504994</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D22" t="n">
-        <v>612.4182386381636</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E22" t="n">
-        <v>464.5051450557705</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
         <v>317.6151975578601</v>
@@ -5907,55 +5907,55 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2233.736227705813</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1944.661001050011</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1689.976512844124</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1400.559342807163</v>
       </c>
       <c r="X22" t="n">
-        <v>931.4710609784063</v>
+        <v>1172.569791909146</v>
       </c>
       <c r="Y22" t="n">
-        <v>931.4710609784063</v>
+        <v>951.7772127656159</v>
       </c>
     </row>
     <row r="23">
@@ -5986,13 +5986,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,10 +6001,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694708</v>
@@ -6016,13 +6016,13 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6065,31 +6065,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6126,19 +6126,19 @@
         <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797189</v>
@@ -6214,25 +6214,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>671.2000270096656</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1896.176478190824</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263526</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356194</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6411,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,25 +6460,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>506.2737913123336</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2824.769373306003</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>2655.833190378096</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>2655.833190378096</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>2655.833190378096</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>2646.594662309226</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
-        <v>2479.398563024106</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>3999.301626420637</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>3744.61713821475</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>3455.19996817779</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>3227.210417279773</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>3006.417838136243</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6688,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,16 +6712,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6776,25 +6776,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.167399417937</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N33" t="n">
-        <v>1963.765362972544</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3160.164713532175</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C34" t="n">
-        <v>2991.228530604268</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D34" t="n">
-        <v>2841.111891191932</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E34" t="n">
-        <v>2841.111891191932</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>2694.221943694022</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>3160.164713532175</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>3160.164713532175</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,16 +6949,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7013,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M36" t="n">
-        <v>1268.578514636218</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>1896.176478190825</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2307.590151828076</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>2018.514925172274</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7168,16 +7168,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,19 +7186,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
         <v>4606.285157492578</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>577.3880777468471</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>653.7474797708871</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429803</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W40" t="n">
-        <v>1284.178074642674</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X40" t="n">
-        <v>1056.188523744657</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y40" t="n">
-        <v>835.3959446011269</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,16 +7423,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1072.713683962606</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>1700.311647517212</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>2252.221377756499</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>444.7013164925216</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E43" t="n">
-        <v>296.7882229101285</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F43" t="n">
-        <v>149.8982754122182</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7636,40 +7636,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>768.5380889459582</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>599.6019060180513</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1688.385853854706</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1398.968683817745</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1170.979132919728</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>950.1865537761979</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8057,16 +8057,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>211.0329012241552</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8075,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>138.9393975111057</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>20.93778120154988</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3273467878349</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>30.36925650589473</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878346</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8543,7 +8543,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>138.9393975111058</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8947,7 +8947,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>-5.794924217776389e-13</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -10117,7 +10117,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>-2.230370853753821e-13</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>28.95742156328097</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>32.89260457060021</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23661,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>145.6085800303783</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>106.4657939283486</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23746,7 +23746,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23943,19 +23943,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>147.3599015160445</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>41.11201973523731</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24138,10 +24138,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>6.310863011585099</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>15.02465210191954</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856552</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>180.5336875992868</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>136.2749052347504</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>34.11482774761799</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,16 +25362,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>145.8014946027475</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25596,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>72.11969353038609</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>110.003342051665</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>34.97276993489203</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>813246.0393401296</v>
+        <v>813246.0393401294</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>813246.0393401296</v>
+        <v>813246.0393401294</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>813246.0393401296</v>
+        <v>813246.0393401295</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>813246.0393401296</v>
+        <v>813246.0393401295</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>813246.0393401296</v>
+        <v>813246.0393401295</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>813246.0393401296</v>
+        <v>813246.0393401295</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>813246.0393401296</v>
+        <v>813246.0393401295</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>615781.3273982127</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.3273982127</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982129</v>
       </c>
       <c r="E2" t="n">
-        <v>605359.9497675046</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="F2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="G2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="H2" t="n">
         <v>605359.9497675041</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="J2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="K2" t="n">
+        <v>605359.9497675047</v>
+      </c>
+      <c r="L2" t="n">
         <v>605359.9497675045</v>
       </c>
-      <c r="H2" t="n">
-        <v>605359.9497675042</v>
-      </c>
-      <c r="I2" t="n">
-        <v>605359.9497675041</v>
-      </c>
-      <c r="J2" t="n">
-        <v>605359.9497675046</v>
-      </c>
-      <c r="K2" t="n">
-        <v>605359.9497675042</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>605359.9497675044</v>
       </c>
-      <c r="M2" t="n">
-        <v>605359.9497675045</v>
-      </c>
       <c r="N2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="O2" t="n">
-        <v>605359.9497675039</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="P2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675044</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245457</v>
+        <v>507485.4416245461</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.920821771112969e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>167605.1778099825</v>
@@ -26426,40 +26426,40 @@
         <v>131909.726831625</v>
       </c>
       <c r="E4" t="n">
+        <v>6897.424496707331</v>
+      </c>
+      <c r="F4" t="n">
+        <v>6897.424496707341</v>
+      </c>
+      <c r="G4" t="n">
         <v>6897.42449670736</v>
       </c>
-      <c r="F4" t="n">
-        <v>6897.424496707415</v>
-      </c>
-      <c r="G4" t="n">
-        <v>6897.424496707359</v>
-      </c>
       <c r="H4" t="n">
+        <v>6897.424496707361</v>
+      </c>
+      <c r="I4" t="n">
         <v>6897.42449670736</v>
       </c>
-      <c r="I4" t="n">
-        <v>6897.424496707319</v>
-      </c>
       <c r="J4" t="n">
+        <v>6897.42449670736</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6897.42449670733</v>
+      </c>
+      <c r="L4" t="n">
         <v>6897.424496707361</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6897.424496707359</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6897.42449670736</v>
       </c>
       <c r="M4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="N4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707319</v>
       </c>
       <c r="O4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="P4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707361</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-723817.9554491768</v>
+        <v>-723817.9554491766</v>
       </c>
       <c r="C6" t="n">
+        <v>390933.8281267431</v>
+      </c>
+      <c r="D6" t="n">
         <v>390933.8281267432</v>
       </c>
-      <c r="D6" t="n">
-        <v>390933.8281267426</v>
-      </c>
       <c r="E6" t="n">
-        <v>-10145.4461776556</v>
+        <v>-10492.82543201321</v>
       </c>
       <c r="F6" t="n">
-        <v>497339.9954468897</v>
+        <v>496992.616192533</v>
       </c>
       <c r="G6" t="n">
-        <v>497339.99544689</v>
+        <v>496992.6161925328</v>
       </c>
       <c r="H6" t="n">
-        <v>497339.9954468898</v>
+        <v>496992.6161925326</v>
       </c>
       <c r="I6" t="n">
-        <v>497339.9954468894</v>
+        <v>496992.6161925328</v>
       </c>
       <c r="J6" t="n">
-        <v>329734.8176369076</v>
+        <v>329387.4383825504</v>
       </c>
       <c r="K6" t="n">
-        <v>497339.9954468898</v>
+        <v>496992.6161925333</v>
       </c>
       <c r="L6" t="n">
-        <v>497339.9954468898</v>
+        <v>496992.616192533</v>
       </c>
       <c r="M6" t="n">
-        <v>364732.7017179633</v>
+        <v>364385.3224636063</v>
       </c>
       <c r="N6" t="n">
-        <v>497339.9954468896</v>
+        <v>496992.616192533</v>
       </c>
       <c r="O6" t="n">
-        <v>497339.9954468894</v>
+        <v>496992.6161925329</v>
       </c>
       <c r="P6" t="n">
-        <v>497339.9954468897</v>
+        <v>496992.6161925329</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
+        <v>934.0648921175392</v>
+      </c>
+      <c r="D3" t="n">
         <v>934.0648921175391</v>
-      </c>
-      <c r="D3" t="n">
-        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000387</v>
@@ -26825,7 +26825,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241344</v>
+        <v>433.9106082241349</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>640.5848321000385</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>169.8073429382538</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>63.92784040822843</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,25 +27539,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>74.70139910034513</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,13 +27587,13 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>188.3613055913121</v>
       </c>
     </row>
     <row r="5">
@@ -27621,22 +27621,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>9.804555084955837</v>
+        <v>9.958400864555188</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>139.3733801482991</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27827,19 +27827,19 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>168.5318826025696</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>68.09417367807686</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>216.3866872723394</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>33.91007409977237</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28061,13 +28061,13 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>63.90808845680462</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28389,7 +28389,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -29088,7 +29088,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -30273,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>-5.226490029168309e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -31281,43 +31281,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,7 +31372,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31381,25 +31381,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31472,13 +31472,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,34 +31609,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>379.4203056753705</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>279.2419622547062</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>615.038144437878</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32785,10 +32785,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422586</v>
@@ -32797,22 +32797,22 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>530.5785304507785</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -32943,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33022,7 +33022,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33031,7 +33031,7 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>233.3139244897919</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862122</v>
@@ -33040,13 +33040,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>404.0195168876591</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,13 +33490,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33505,19 +33505,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>309.9424824173362</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>169.9530009943068</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593843</v>
       </c>
       <c r="M36" t="n">
-        <v>677.2750468965965</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>337.5641188593843</v>
       </c>
       <c r="M39" t="n">
-        <v>245.8118639189582</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>400.8433522134843</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>364.3208035245835</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,16 +34777,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>577.9642335061958</v>
       </c>
       <c r="N3" t="n">
         <v>391.197099592874</v>
@@ -34795,10 +34795,10 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
-        <v>255.4201198419603</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,16 +35014,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>379.9148430313197</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
@@ -35032,13 +35032,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>280.048785629427</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35105,7 +35105,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35114,7 +35114,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313194</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>530.1364971039797</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396416</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,25 +35494,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>237.2862717533522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,22 +35968,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>140.6875824748321</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>472.9041105158597</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36445,22 +36445,22 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>388.4444965287602</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,7 +36679,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>94.75954470991771</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,13 +36688,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>265.4651371077849</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,19 +37153,19 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>167.3462379728918</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795101</v>
       </c>
       <c r="M36" t="n">
-        <v>535.1410129745782</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>199.0097390795101</v>
       </c>
       <c r="M39" t="n">
-        <v>103.6778299969399</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,25 +37864,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>266.868944799154</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>224.339029438562</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_10_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2360241.485391517</v>
+        <v>2362002.015694302</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12383593.48435851</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283181</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -661,19 +661,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>59.52437499056592</v>
+        <v>114.6863505885012</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
@@ -718,13 +718,13 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -822,19 +822,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>86.30632419201491</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -867,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>30.22334776078266</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>224.6260260776702</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>196.6997841156786</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1071,10 +1071,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>50.60447027178179</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>52.21681339464231</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1138,10 +1138,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>286.5888679426061</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1192,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>226.9686834372092</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1293,7 +1293,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1302,13 +1302,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>111.5109739231589</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>50.98074812542813</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>116.4636264596503</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>219.245038753228</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1776,16 +1776,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>38.95525409458268</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1824,13 +1824,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>139.5271979141359</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2010,7 +2010,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>70.0455488112438</v>
+        <v>177.6965697803346</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>211.0945873157032</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2377,7 +2377,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>122.6028762599955</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>41.33703994143001</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>172.026033500079</v>
+        <v>253.2918698186439</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,22 +3900,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>37.17792077063358</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4194,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1653.287154902436</v>
+        <v>540.2706867570292</v>
       </c>
       <c r="C2" t="n">
-        <v>1284.324637962024</v>
+        <v>540.2706867570292</v>
       </c>
       <c r="D2" t="n">
-        <v>926.0589393552737</v>
+        <v>540.2706867570292</v>
       </c>
       <c r="E2" t="n">
-        <v>540.2706867570294</v>
+        <v>540.2706867570292</v>
       </c>
       <c r="F2" t="n">
-        <v>129.2847819674217</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G2" t="n">
         <v>117.6204357321147</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2502.213697096553</v>
+        <v>2446.494529825911</v>
       </c>
       <c r="T2" t="n">
-        <v>2293.468055702378</v>
+        <v>2237.748888431736</v>
       </c>
       <c r="U2" t="n">
-        <v>2039.886994966557</v>
+        <v>1984.167827695916</v>
       </c>
       <c r="V2" t="n">
-        <v>2039.886994966557</v>
+        <v>1653.104940352345</v>
       </c>
       <c r="W2" t="n">
-        <v>2039.886994966557</v>
+        <v>1300.336285082231</v>
       </c>
       <c r="X2" t="n">
-        <v>2039.886994966557</v>
+        <v>926.8705268211511</v>
       </c>
       <c r="Y2" t="n">
-        <v>2039.886994966557</v>
+        <v>926.8705268211511</v>
       </c>
     </row>
     <row r="3">
@@ -4400,10 +4400,10 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
         <v>51.2467865680031</v>
@@ -4412,19 +4412,19 @@
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625332</v>
+        <v>854.8429682049859</v>
       </c>
       <c r="M3" t="n">
-        <v>1165.206974733667</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N3" t="n">
-        <v>1552.492103330612</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O3" t="n">
-        <v>1884.562538506774</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
         <v>2447.023413292609</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>198.1367340659135</v>
+        <v>751.3310369968233</v>
       </c>
       <c r="C4" t="n">
-        <v>198.1367340659135</v>
+        <v>751.3310369968233</v>
       </c>
       <c r="D4" t="n">
-        <v>198.1367340659135</v>
+        <v>601.2143975844875</v>
       </c>
       <c r="E4" t="n">
-        <v>198.1367340659135</v>
+        <v>453.3013040020944</v>
       </c>
       <c r="F4" t="n">
-        <v>51.2467865680031</v>
+        <v>306.411356504184</v>
       </c>
       <c r="G4" t="n">
-        <v>51.2467865680031</v>
+        <v>138.4248918124626</v>
       </c>
       <c r="H4" t="n">
         <v>51.2467865680031</v>
@@ -4515,25 +4515,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1216.838891429094</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>927.7205539329318</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>927.7205539329318</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W4" t="n">
-        <v>638.3033838959711</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="X4" t="n">
-        <v>410.3138329979538</v>
+        <v>1153.772080970593</v>
       </c>
       <c r="Y4" t="n">
-        <v>379.7851988961531</v>
+        <v>932.979501827063</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1586.913505738324</v>
+        <v>1071.22480659549</v>
       </c>
       <c r="C5" t="n">
-        <v>1217.950988797912</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D5" t="n">
-        <v>859.685290191162</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E5" t="n">
-        <v>473.8970375929177</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F5" t="n">
-        <v>62.91113280331017</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>51.2467865680031</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
         <v>51.2467865680031</v>
@@ -4570,10 +4570,10 @@
         <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872914</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923561</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2363.652677778257</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2363.652677778257</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V5" t="n">
-        <v>2363.652677778257</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="W5" t="n">
-        <v>2363.652677778257</v>
+        <v>1831.290404920691</v>
       </c>
       <c r="X5" t="n">
-        <v>2363.652677778257</v>
+        <v>1457.824646659611</v>
       </c>
       <c r="Y5" t="n">
-        <v>1973.513345802446</v>
+        <v>1457.824646659611</v>
       </c>
     </row>
     <row r="6">
@@ -4640,28 +4640,28 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I6" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380226</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>956.2844025217532</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1590.463386300792</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>1922.533821476954</v>
       </c>
       <c r="P6" t="n">
         <v>2239.046898434118</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>664.1529317523638</v>
+        <v>990.0598878880306</v>
       </c>
       <c r="C7" t="n">
-        <v>664.1529317523638</v>
+        <v>821.1237049601237</v>
       </c>
       <c r="D7" t="n">
-        <v>514.036292340028</v>
+        <v>671.007065547788</v>
       </c>
       <c r="E7" t="n">
-        <v>366.1231987576349</v>
+        <v>523.0939719653949</v>
       </c>
       <c r="F7" t="n">
-        <v>219.2332512597245</v>
+        <v>376.2040244674845</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>208.2175597757631</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I7" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4749,28 +4749,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T7" t="n">
-        <v>1583.701864120313</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="U7" t="n">
-        <v>1294.583526624151</v>
+        <v>1244.744376093917</v>
       </c>
       <c r="V7" t="n">
-        <v>1294.583526624151</v>
+        <v>990.0598878880306</v>
       </c>
       <c r="W7" t="n">
-        <v>1294.583526624151</v>
+        <v>990.0598878880306</v>
       </c>
       <c r="X7" t="n">
-        <v>1066.593975726134</v>
+        <v>990.0598878880306</v>
       </c>
       <c r="Y7" t="n">
-        <v>845.8013965826035</v>
+        <v>990.0598878880306</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>728.3028554854568</v>
+        <v>1182.87310169792</v>
       </c>
       <c r="C8" t="n">
-        <v>359.3403385450451</v>
+        <v>813.9105847575083</v>
       </c>
       <c r="D8" t="n">
-        <v>69.85663355251364</v>
+        <v>455.6448861507579</v>
       </c>
       <c r="E8" t="n">
         <v>69.85663355251364</v>
@@ -4807,10 +4807,10 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816075</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4840,16 +4840,16 @@
         <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056584</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W8" t="n">
-        <v>1878.50778578647</v>
+        <v>2333.078031998934</v>
       </c>
       <c r="X8" t="n">
-        <v>1505.04202752539</v>
+        <v>1959.612273737853</v>
       </c>
       <c r="Y8" t="n">
-        <v>1114.902695549579</v>
+        <v>1569.472941762042</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
         <v>51.2467865680031</v>
@@ -4886,22 +4886,22 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>684.9695361605188</v>
+        <v>614.5430248380226</v>
       </c>
       <c r="L9" t="n">
-        <v>979.6730931919905</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M9" t="n">
-        <v>1342.93511215121</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1867.77024428415</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>461.9138669598622</v>
+        <v>716.5983551657494</v>
       </c>
       <c r="C10" t="n">
-        <v>461.9138669598622</v>
+        <v>547.6621722378425</v>
       </c>
       <c r="D10" t="n">
-        <v>311.7972275475264</v>
+        <v>397.5455328255067</v>
       </c>
       <c r="E10" t="n">
-        <v>163.8841339651333</v>
+        <v>249.6324392431136</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2467865680031</v>
+        <v>102.7424917452032</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>102.7424917452032</v>
       </c>
       <c r="H10" t="n">
         <v>51.2467865680031</v>
@@ -4962,7 +4962,7 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4977,10 +4977,10 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4998,16 +4998,16 @@
         <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1381.76163186861</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W10" t="n">
-        <v>1092.344461831649</v>
+        <v>1347.028950037537</v>
       </c>
       <c r="X10" t="n">
-        <v>864.354910933632</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y10" t="n">
-        <v>643.5623317901019</v>
+        <v>898.2468199959891</v>
       </c>
     </row>
     <row r="11">
@@ -5023,43 +5023,43 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5117,13 +5117,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.5020655703114</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>526.5658826424045</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D13" t="n">
-        <v>526.5658826424045</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>378.6527890600114</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5199,52 +5199,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,13 +5290,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5311,19 +5311,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5354,13 +5354,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
@@ -5369,10 +5369,10 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>741.843151638089</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>572.9069687101821</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>422.7903292978464</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>274.8772357154533</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1547.449290305074</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1547.449290305074</v>
       </c>
       <c r="X16" t="n">
-        <v>1144.284195611859</v>
+        <v>1319.459739407057</v>
       </c>
       <c r="Y16" t="n">
-        <v>923.4916164683287</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="17">
@@ -5512,22 +5512,22 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5591,13 +5591,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>951.7772127656159</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C19" t="n">
-        <v>782.841029837709</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253733</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>2126.309465880251</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="U19" t="n">
-        <v>2126.309465880251</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V19" t="n">
-        <v>1871.624977674364</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W19" t="n">
-        <v>1582.207807637403</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X19" t="n">
-        <v>1354.218256739386</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y19" t="n">
-        <v>1133.425677595856</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="20">
@@ -5743,25 +5743,25 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
@@ -5828,13 +5828,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>951.7772127656159</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>782.841029837709</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>632.7243904253733</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2233.736227705813</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1944.661001050011</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1689.976512844124</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1400.559342807163</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1172.569791909146</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>951.7772127656159</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5983,16 +5983,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6007,22 +6007,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,28 +6062,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>454.6048385560546</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6214,34 +6214,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6302,25 +6302,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>454.6048385560546</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,25 +6460,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6688,40 +6688,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6776,25 +6776,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>740.5562989961526</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>1337.934786622704</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>1965.532750177311</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>2517.442480416598</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,16 +6949,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7013,13 +7013,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>776.1751066403293</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192605</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,19 +7186,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
         <v>4606.285157492578</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>776.1751066403293</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263526</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356194</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232836</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U40" t="n">
-        <v>2273.199413378161</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V40" t="n">
-        <v>2018.514925172274</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W40" t="n">
-        <v>1729.097755135313</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,16 +7423,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7487,16 +7487,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M42" t="n">
         <v>1373.553594266881</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7636,40 +7636,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7724,25 +7724,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>454.6048385560546</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>989.3306680894883</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>820.3944851615814</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>670.2778457492457</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>522.3647521668526</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>1170.979132919728</v>
       </c>
     </row>
   </sheetData>
@@ -8060,13 +8060,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>211.0329012241552</v>
+        <v>265.0304328515139</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8075,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878349</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8306,19 +8306,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>249.3877325071647</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>70.03064962107845</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3273467878349</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8543,7 +8543,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>138.9393975111058</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8947,7 +8947,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>-5.794924217776389e-13</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -10117,7 +10117,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>-2.230370853753821e-13</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>28.95742156328097</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,19 +23463,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>32.89260457059996</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>106.4657939283486</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23712,13 +23712,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>112.6104454096921</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23898,7 +23898,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>147.3599015160445</v>
+        <v>39.70888054695368</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>6.310863011585099</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -25605,7 +25605,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>114.1584408891651</v>
+        <v>32.89260457060021</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>24.63391537253442</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>108.2431272522977</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>813246.0393401294</v>
+        <v>813246.0393401296</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>813246.0393401294</v>
+        <v>813246.0393401296</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>813246.0393401296</v>
+        <v>813246.0393401295</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>813246.0393401295</v>
+        <v>813246.0393401296</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>813246.0393401296</v>
+        <v>813246.0393401295</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>813246.0393401295</v>
+        <v>813246.0393401296</v>
       </c>
     </row>
   </sheetData>
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982127</v>
+        <v>615781.3273982126</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982127</v>
+        <v>615781.327398213</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982129</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="E2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="F2" t="n">
         <v>605359.9497675042</v>
       </c>
-      <c r="F2" t="n">
-        <v>605359.9497675045</v>
-      </c>
       <c r="G2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="H2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="I2" t="n">
         <v>605359.9497675042</v>
       </c>
       <c r="J2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="K2" t="n">
-        <v>605359.9497675047</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="L2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675046</v>
       </c>
       <c r="M2" t="n">
         <v>605359.9497675044</v>
@@ -26352,10 +26352,10 @@
         <v>605359.9497675044</v>
       </c>
       <c r="O2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="P2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675041</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245461</v>
+        <v>507485.4416245458</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>131909.726831625</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707331</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.424496707341</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="G4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6897.424496707361</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="K4" t="n">
         <v>6897.42449670736</v>
       </c>
-      <c r="H4" t="n">
-        <v>6897.424496707361</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="L4" t="n">
         <v>6897.42449670736</v>
-      </c>
-      <c r="J4" t="n">
-        <v>6897.42449670736</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6897.42449670733</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6897.424496707361</v>
       </c>
       <c r="M4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="N4" t="n">
-        <v>6897.424496707319</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="O4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="P4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707359</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-723817.9554491766</v>
+        <v>-723817.9554491767</v>
       </c>
       <c r="C6" t="n">
-        <v>390933.8281267431</v>
+        <v>390933.8281267433</v>
       </c>
       <c r="D6" t="n">
-        <v>390933.8281267432</v>
+        <v>390933.8281267429</v>
       </c>
       <c r="E6" t="n">
-        <v>-10492.82543201321</v>
+        <v>-10180.18410309154</v>
       </c>
       <c r="F6" t="n">
-        <v>496992.616192533</v>
+        <v>497305.257521454</v>
       </c>
       <c r="G6" t="n">
-        <v>496992.6161925328</v>
+        <v>497305.2575214539</v>
       </c>
       <c r="H6" t="n">
-        <v>496992.6161925326</v>
+        <v>497305.2575214541</v>
       </c>
       <c r="I6" t="n">
-        <v>496992.6161925328</v>
+        <v>497305.257521454</v>
       </c>
       <c r="J6" t="n">
-        <v>329387.4383825504</v>
+        <v>329700.0797114716</v>
       </c>
       <c r="K6" t="n">
-        <v>496992.6161925333</v>
+        <v>497305.2575214542</v>
       </c>
       <c r="L6" t="n">
-        <v>496992.616192533</v>
+        <v>497305.2575214544</v>
       </c>
       <c r="M6" t="n">
-        <v>364385.3224636063</v>
+        <v>364697.9637925275</v>
       </c>
       <c r="N6" t="n">
-        <v>496992.616192533</v>
+        <v>497305.2575214541</v>
       </c>
       <c r="O6" t="n">
-        <v>496992.6161925329</v>
+        <v>497305.257521454</v>
       </c>
       <c r="P6" t="n">
-        <v>496992.6161925329</v>
+        <v>497305.2575214539</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
+        <v>934.0648921175393</v>
+      </c>
+      <c r="D3" t="n">
         <v>934.0648921175392</v>
-      </c>
-      <c r="D3" t="n">
-        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26810,7 +26810,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26825,7 +26825,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241349</v>
+        <v>433.9106082241345</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27381,19 +27381,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>63.92784040822843</v>
+        <v>8.765864810293124</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27438,13 +27438,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27542,19 +27542,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>60.94518496311393</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27587,25 +27587,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>188.3613055913121</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>140.6468656933373</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>9.958400864555188</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>96.64703888334705</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>168.5318826025696</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27858,10 +27858,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>68.09417367807686</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27912,10 +27912,10 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>122.2722852802038</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28013,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28022,13 +28022,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>33.91007409977237</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>96.27076102970071</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28070,7 +28070,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -30273,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>-5.226490029168309e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
         <v>38.45624955336179</v>
@@ -31293,16 +31293,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
         <v>539.9786897190645</v>
@@ -31314,7 +31314,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
@@ -31363,7 +31363,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31375,16 +31375,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31469,7 +31469,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
@@ -31478,7 +31478,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31518,43 +31518,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,7 +31609,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31618,25 +31618,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31709,13 +31709,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,16 +31843,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>398.7616643558013</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,22 +32080,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>466.5925882502527</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>398.7616643558013</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,22 +32791,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>349.3304751113902</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,22 +33028,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>349.3304751113902</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,19 +33265,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,22 +33502,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>169.9530009943068</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,19 +33739,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>337.5641188593843</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,19 +33976,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>337.5641188593843</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,19 +34213,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M42" t="n">
-        <v>444.2274915982891</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,22 +34450,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>349.3304751113902</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>444.2274915982891</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34780,13 +34780,13 @@
         <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>577.9642335061958</v>
+        <v>631.9617651335544</v>
       </c>
       <c r="N3" t="n">
         <v>391.197099592874</v>
@@ -34795,7 +34795,7 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
         <v>116.4807223308546</v>
@@ -34938,19 +34938,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
         <v>308.745693963795</v>
@@ -34959,7 +34959,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313197</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>319.7101787446108</v>
       </c>
       <c r="Q6" t="n">
         <v>326.5580100667037</v>
@@ -35093,13 +35093,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
@@ -35108,13 +35108,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>379.9148430313197</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>530.1364971039797</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35342,7 +35342,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35351,7 +35351,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,13 +35494,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>256.1654199113569</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,19 +35731,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>256.1654199113569</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,28 +36433,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>211.4890361370312</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>211.4890361370312</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,16 +36916,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>35.9785935799765</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,16 +37390,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>199.0097390795101</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>199.0097390795101</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,16 +37864,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M42" t="n">
-        <v>302.0934576762708</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,28 +38092,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>211.4890361370312</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>302.0934576762708</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
